--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
@@ -134,13 +134,13 @@
     <t>Lá do Itaqui</t>
   </si>
   <si>
+    <t>FC Los Castilho</t>
+  </si>
+  <si>
+    <t>seralex</t>
+  </si>
+  <si>
     <t>TORRESMO COM PINGA</t>
-  </si>
-  <si>
-    <t>FC Los Castilho</t>
-  </si>
-  <si>
-    <t>seralex</t>
   </si>
   <si>
     <t>Grupo G</t>
@@ -1454,10 +1454,10 @@
         <v>164.7001953125</v>
       </c>
       <c r="H2">
-        <v>137.64013671875</v>
+        <v>147.580078125</v>
       </c>
       <c r="I2">
-        <v>27.06005859375</v>
+        <v>17.1201171875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1483,13 +1483,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>161.18017578125</v>
+        <v>160.33984375</v>
       </c>
       <c r="H3">
-        <v>163.98974609375</v>
+        <v>154.89013671875</v>
       </c>
       <c r="I3">
-        <v>-2.8095703125</v>
+        <v>5.44970703125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1515,13 +1515,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>160.33984375</v>
+        <v>141.2900390625</v>
       </c>
       <c r="H4">
-        <v>169.17041015625</v>
+        <v>146.77001953125</v>
       </c>
       <c r="I4">
-        <v>-8.83056640625</v>
+        <v>-5.47998046875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1547,13 +1547,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>141.2900390625</v>
+        <v>161.18017578125</v>
       </c>
       <c r="H5">
-        <v>156.7099609375</v>
+        <v>178.27001953125</v>
       </c>
       <c r="I5">
-        <v>-15.419921875</v>
+        <v>-17.08984375</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
@@ -56,12 +56,12 @@
     <t>Grupo A</t>
   </si>
   <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
     <t>BORGES ITAQUI F.C.</t>
   </si>
   <si>
-    <t>pura bucha /botafogo</t>
-  </si>
-  <si>
     <t>A Lenda Super Vasco F.c</t>
   </si>
   <si>
@@ -71,18 +71,18 @@
     <t>Grupo B</t>
   </si>
   <si>
+    <t>lsauer fc</t>
+  </si>
+  <si>
+    <t>Tabajara de Inhaua FC2</t>
+  </si>
+  <si>
     <t>HS SPORTS F.C</t>
   </si>
   <si>
-    <t>Tabajara de Inhaua FC2</t>
-  </si>
-  <si>
     <t>Rolo Compressor ZN</t>
   </si>
   <si>
-    <t>lsauer fc</t>
-  </si>
-  <si>
     <t>Grupo C</t>
   </si>
   <si>
@@ -104,15 +104,15 @@
     <t>Texas Club 2025</t>
   </si>
   <si>
+    <t>Tatols Beants F.C</t>
+  </si>
+  <si>
+    <t>Fedato Futebol Clube</t>
+  </si>
+  <si>
     <t>Super Vasco f.c</t>
   </si>
   <si>
-    <t>Fedato Futebol Clube</t>
-  </si>
-  <si>
-    <t>Tatols Beants F.C</t>
-  </si>
-  <si>
     <t>Grupo E</t>
   </si>
   <si>
@@ -134,13 +134,13 @@
     <t>Lá do Itaqui</t>
   </si>
   <si>
+    <t>TORRESMO COM PINGA</t>
+  </si>
+  <si>
     <t>FC Los Castilho</t>
   </si>
   <si>
     <t>seralex</t>
-  </si>
-  <si>
-    <t>TORRESMO COM PINGA</t>
   </si>
   <si>
     <t>Grupo G</t>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>142.47998046875</v>
+        <v>224.73974609375</v>
       </c>
       <c r="H2">
-        <v>126.68994140625</v>
+        <v>208.33984375</v>
       </c>
       <c r="I2">
-        <v>15.7900390625</v>
+        <v>16.39990234375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -606,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>147.61962890625</v>
+        <v>198.8798828125</v>
       </c>
       <c r="H3">
-        <v>151.93994140625</v>
+        <v>203.81005859375</v>
       </c>
       <c r="I3">
-        <v>-4.3203125</v>
+        <v>-4.93017578125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>147.2900390625</v>
+        <v>210.989990234375</v>
       </c>
       <c r="H4">
-        <v>144.9296875</v>
+        <v>216.1298828125</v>
       </c>
       <c r="I4">
-        <v>2.3603515625</v>
+        <v>-5.139892578125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>131.33984375</v>
+        <v>202.5400390625</v>
       </c>
       <c r="H5">
-        <v>145.169921875</v>
+        <v>208.869873046875</v>
       </c>
       <c r="I5">
-        <v>-13.830078125</v>
+        <v>-6.329833984375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -747,10 +747,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -759,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>159.27001953125</v>
+        <v>233.83984375</v>
       </c>
       <c r="H2">
-        <v>161.240234375</v>
+        <v>219.93017578125</v>
       </c>
       <c r="I2">
-        <v>-1.97021484375</v>
+        <v>13.90966796875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -779,10 +779,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.4404296875</v>
+        <v>230.390625</v>
       </c>
       <c r="H3">
-        <v>146.8701171875</v>
+        <v>211.990234375</v>
       </c>
       <c r="I3">
-        <v>10.5703125</v>
+        <v>18.400390625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>156.4404296875</v>
+        <v>224.39013671875</v>
       </c>
       <c r="H4">
-        <v>152.7802734375</v>
+        <v>234.1904296875</v>
       </c>
       <c r="I4">
-        <v>3.66015625</v>
+        <v>-9.80029296875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>151.669921875</v>
+        <v>212.4404296875</v>
       </c>
       <c r="H5">
-        <v>163.93017578125</v>
+        <v>234.9501953125</v>
       </c>
       <c r="I5">
-        <v>-12.26025390625</v>
+        <v>-22.509765625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -920,10 +920,10 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>160.940185546875</v>
+        <v>243.360107421875</v>
       </c>
       <c r="H2">
-        <v>160.47998046875</v>
+        <v>227.8798828125</v>
       </c>
       <c r="I2">
-        <v>0.460205078125</v>
+        <v>15.480224609375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -952,10 +952,10 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>159.47998046875</v>
+        <v>234.580078125</v>
       </c>
       <c r="H3">
-        <v>171.97998046875</v>
+        <v>240.39990234375</v>
       </c>
       <c r="I3">
-        <v>-12.5</v>
+        <v>-5.81982421875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -993,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>148.77978515625</v>
+        <v>216.1796875</v>
       </c>
       <c r="H4">
-        <v>146.27978515625</v>
+        <v>228.69970703125</v>
       </c>
       <c r="I4">
-        <v>2.5</v>
+        <v>-12.52001953125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>147.27978515625</v>
+        <v>215.69970703125</v>
       </c>
       <c r="H5">
-        <v>137.739990234375</v>
+        <v>212.840087890625</v>
       </c>
       <c r="I5">
-        <v>9.539794921875</v>
+        <v>2.859619140625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1093,10 +1093,10 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>153.68017578125</v>
+        <v>230.60009765625</v>
       </c>
       <c r="H2">
-        <v>144.09033203125</v>
+        <v>215.490234375</v>
       </c>
       <c r="I2">
-        <v>9.58984375</v>
+        <v>15.10986328125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>157.540283203125</v>
+        <v>239.4697265625</v>
       </c>
       <c r="H3">
-        <v>150.89990234375</v>
+        <v>240.10009765625</v>
       </c>
       <c r="I3">
-        <v>6.640380859375</v>
+        <v>-0.63037109375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1166,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>155.0703125</v>
+        <v>230.490234375</v>
       </c>
       <c r="H4">
-        <v>146.540283203125</v>
+        <v>246.090087890625</v>
       </c>
       <c r="I4">
-        <v>8.530029296875</v>
+        <v>-15.599853515625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1189,10 +1189,10 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1201,13 +1201,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>139.919921875</v>
+        <v>228.940185546875</v>
       </c>
       <c r="H5">
-        <v>164.68017578125</v>
+        <v>227.81982421875</v>
       </c>
       <c r="I5">
-        <v>-24.76025390625</v>
+        <v>1.120361328125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1266,10 +1266,10 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>179.77978515625</v>
+        <v>266.7998046875</v>
       </c>
       <c r="H2">
-        <v>127.210205078125</v>
+        <v>201.230224609375</v>
       </c>
       <c r="I2">
-        <v>52.569580078125</v>
+        <v>65.569580078125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1298,10 +1298,10 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>154.449951171875</v>
+        <v>249.999755859375</v>
       </c>
       <c r="H3">
-        <v>141.52978515625</v>
+        <v>218.44970703125</v>
       </c>
       <c r="I3">
-        <v>12.920166015625</v>
+        <v>31.550048828125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>154.38037109375</v>
+        <v>231.30029296875</v>
       </c>
       <c r="H4">
-        <v>175.580078125</v>
+        <v>271.1298828125</v>
       </c>
       <c r="I4">
-        <v>-21.19970703125</v>
+        <v>-39.82958984375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>137.330078125</v>
+        <v>211.35009765625</v>
       </c>
       <c r="H5">
-        <v>181.6201171875</v>
+        <v>268.64013671875</v>
       </c>
       <c r="I5">
-        <v>-44.2900390625</v>
+        <v>-57.2900390625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1439,10 +1439,10 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>164.7001953125</v>
+        <v>256.47021484375</v>
       </c>
       <c r="H2">
-        <v>147.580078125</v>
+        <v>212.05029296875</v>
       </c>
       <c r="I2">
-        <v>17.1201171875</v>
+        <v>44.419921875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1480,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>160.33984375</v>
+        <v>231.2802734375</v>
       </c>
       <c r="H3">
-        <v>154.89013671875</v>
+        <v>216.489990234375</v>
       </c>
       <c r="I3">
-        <v>5.44970703125</v>
+        <v>14.790283203125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1512,16 +1512,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>141.2900390625</v>
+        <v>224.81005859375</v>
       </c>
       <c r="H4">
-        <v>146.77001953125</v>
+        <v>246.66015625</v>
       </c>
       <c r="I4">
-        <v>-5.47998046875</v>
+        <v>-21.85009765625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1547,13 +1547,13 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>161.18017578125</v>
+        <v>179.510009765625</v>
       </c>
       <c r="H5">
-        <v>178.27001953125</v>
+        <v>216.8701171875</v>
       </c>
       <c r="I5">
-        <v>-17.08984375</v>
+        <v>-37.360107421875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1612,10 +1612,10 @@
         <v>41</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>172.33984375</v>
+        <v>257.0400390625</v>
       </c>
       <c r="H2">
-        <v>138.979736328125</v>
+        <v>200.6796875</v>
       </c>
       <c r="I2">
-        <v>33.360107421875</v>
+        <v>56.3603515625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1644,10 +1644,10 @@
         <v>42</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>165.330078125</v>
+        <v>236.9501953125</v>
       </c>
       <c r="H3">
-        <v>158.43994140625</v>
+        <v>222.33984375</v>
       </c>
       <c r="I3">
-        <v>6.89013671875</v>
+        <v>14.6103515625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1685,16 +1685,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>159.360107421875</v>
+        <v>223.260009765625</v>
       </c>
       <c r="H4">
-        <v>138.979736328125</v>
+        <v>210.599853515625</v>
       </c>
       <c r="I4">
-        <v>20.38037109375</v>
+        <v>12.66015625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>125.079833984375</v>
+        <v>186.77978515625</v>
       </c>
       <c r="H5">
-        <v>185.71044921875</v>
+        <v>270.41064453125</v>
       </c>
       <c r="I5">
-        <v>-60.630615234375</v>
+        <v>-83.630859375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1785,10 +1785,10 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>175.58984375</v>
+        <v>255.68994140625</v>
       </c>
       <c r="H2">
-        <v>150.39013671875</v>
+        <v>224.68994140625</v>
       </c>
       <c r="I2">
-        <v>25.19970703125</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1829,13 +1829,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>186.72998046875</v>
+        <v>273.52978515625</v>
       </c>
       <c r="H3">
-        <v>162.990234375</v>
+        <v>244.51025390625</v>
       </c>
       <c r="I3">
-        <v>23.73974609375</v>
+        <v>29.01953125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>169.09033203125</v>
+        <v>243.39013671875</v>
       </c>
       <c r="H4">
-        <v>173.02978515625</v>
+        <v>253.1298828125</v>
       </c>
       <c r="I4">
-        <v>-3.939453125</v>
+        <v>-9.73974609375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1890,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>136.68994140625</v>
+        <v>218.2099609375</v>
       </c>
       <c r="H5">
-        <v>181.68994140625</v>
+        <v>268.48974609375</v>
       </c>
       <c r="I5">
-        <v>-45</v>
+        <v>-50.27978515625</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
@@ -59,24 +59,24 @@
     <t>pura bucha /botafogo</t>
   </si>
   <si>
+    <t>Dom Camillo68</t>
+  </si>
+  <si>
     <t>BORGES ITAQUI F.C.</t>
   </si>
   <si>
     <t>A Lenda Super Vasco F.c</t>
   </si>
   <si>
-    <t>Dom Camillo68</t>
-  </si>
-  <si>
     <t>Grupo B</t>
   </si>
   <si>
+    <t>Tabajara de Inhaua FC2</t>
+  </si>
+  <si>
     <t>lsauer fc</t>
   </si>
   <si>
-    <t>Tabajara de Inhaua FC2</t>
-  </si>
-  <si>
     <t>HS SPORTS F.C</t>
   </si>
   <si>
@@ -89,12 +89,12 @@
     <t>Grêmio imortal 37</t>
   </si>
   <si>
+    <t>Analove10 ITAQUI GRANDE!!</t>
+  </si>
+  <si>
     <t>cartola scheuer</t>
   </si>
   <si>
-    <t>Analove10 ITAQUI GRANDE!!</t>
-  </si>
-  <si>
     <t>TEAM LOPES 99</t>
   </si>
   <si>
@@ -149,22 +149,22 @@
     <t>KING LEONN</t>
   </si>
   <si>
+    <t>KillerColorado</t>
+  </si>
+  <si>
     <t>F.C. Rei Das Copas</t>
   </si>
   <si>
-    <t>KillerColorado</t>
-  </si>
-  <si>
     <t>TATITTA FC</t>
   </si>
   <si>
     <t>Grupo H</t>
   </si>
   <si>
+    <t>Gig@ntte</t>
+  </si>
+  <si>
     <t>Laranjja Mecannica</t>
-  </si>
-  <si>
-    <t>Gig@ntte</t>
   </si>
   <si>
     <t>MauHumor F.C.</t>
@@ -574,10 +574,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>224.73974609375</v>
+        <v>313.0595703125</v>
       </c>
       <c r="H2">
-        <v>208.33984375</v>
+        <v>295.06005859375</v>
       </c>
       <c r="I2">
-        <v>16.39990234375</v>
+        <v>17.99951171875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -615,16 +615,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>198.8798828125</v>
+        <v>338.75</v>
       </c>
       <c r="H3">
-        <v>203.81005859375</v>
+        <v>308.550048828125</v>
       </c>
       <c r="I3">
-        <v>-4.93017578125</v>
+        <v>30.199951171875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -638,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>210.989990234375</v>
+        <v>298.56005859375</v>
       </c>
       <c r="H4">
-        <v>216.1298828125</v>
+        <v>340.02001953125</v>
       </c>
       <c r="I4">
-        <v>-5.139892578125</v>
+        <v>-41.4599609375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>202.5400390625</v>
+        <v>297.710205078125</v>
       </c>
       <c r="H5">
-        <v>208.869873046875</v>
+        <v>304.44970703125</v>
       </c>
       <c r="I5">
-        <v>-6.329833984375</v>
+        <v>-6.739501953125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -747,10 +747,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -759,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>233.83984375</v>
+        <v>324.95068359375</v>
       </c>
       <c r="H2">
-        <v>219.93017578125</v>
+        <v>288.02001953125</v>
       </c>
       <c r="I2">
-        <v>13.90966796875</v>
+        <v>36.9306640625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>230.390625</v>
+        <v>338.77001953125</v>
       </c>
       <c r="H3">
-        <v>211.990234375</v>
+        <v>328.09033203125</v>
       </c>
       <c r="I3">
-        <v>18.400390625</v>
+        <v>10.6796875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -811,10 +811,10 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>224.39013671875</v>
+        <v>332.55029296875</v>
       </c>
       <c r="H4">
-        <v>234.1904296875</v>
+        <v>339.12060546875</v>
       </c>
       <c r="I4">
-        <v>-9.80029296875</v>
+        <v>-6.5703125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>212.4404296875</v>
+        <v>288.47021484375</v>
       </c>
       <c r="H5">
-        <v>234.9501953125</v>
+        <v>329.51025390625</v>
       </c>
       <c r="I5">
-        <v>-22.509765625</v>
+        <v>-41.0400390625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -920,10 +920,10 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>243.360107421875</v>
+        <v>365.619873046875</v>
       </c>
       <c r="H2">
-        <v>227.8798828125</v>
+        <v>305.23974609375</v>
       </c>
       <c r="I2">
-        <v>15.480224609375</v>
+        <v>60.380126953125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>234.580078125</v>
+        <v>335.48974609375</v>
       </c>
       <c r="H3">
-        <v>240.39990234375</v>
+        <v>337.759765625</v>
       </c>
       <c r="I3">
-        <v>-5.81982421875</v>
+        <v>-2.27001953125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -984,10 +984,10 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -996,13 +996,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>216.1796875</v>
+        <v>311.93994140625</v>
       </c>
       <c r="H4">
-        <v>228.69970703125</v>
+        <v>362.65966796875</v>
       </c>
       <c r="I4">
-        <v>-12.52001953125</v>
+        <v>-50.7197265625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>215.69970703125</v>
+        <v>324.759765625</v>
       </c>
       <c r="H5">
-        <v>212.840087890625</v>
+        <v>332.150146484375</v>
       </c>
       <c r="I5">
-        <v>2.859619140625</v>
+        <v>-7.390380859375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>230.60009765625</v>
+        <v>310.4599609375</v>
       </c>
       <c r="H2">
-        <v>215.490234375</v>
+        <v>305.650390625</v>
       </c>
       <c r="I2">
-        <v>15.10986328125</v>
+        <v>4.8095703125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>239.4697265625</v>
+        <v>334.33984375</v>
       </c>
       <c r="H3">
-        <v>240.10009765625</v>
+        <v>330.72998046875</v>
       </c>
       <c r="I3">
-        <v>-0.63037109375</v>
+        <v>3.60986328125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1157,10 +1157,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1169,13 +1169,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>230.490234375</v>
+        <v>320.650390625</v>
       </c>
       <c r="H4">
-        <v>246.090087890625</v>
+        <v>325.949951171875</v>
       </c>
       <c r="I4">
-        <v>-15.599853515625</v>
+        <v>-5.299560546875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1198,16 +1198,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>228.940185546875</v>
+        <v>319.570068359375</v>
       </c>
       <c r="H5">
-        <v>227.81982421875</v>
+        <v>322.68994140625</v>
       </c>
       <c r="I5">
-        <v>1.120361328125</v>
+        <v>-3.119873046875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1266,10 +1266,10 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>266.7998046875</v>
+        <v>366.4599609375</v>
       </c>
       <c r="H2">
-        <v>201.230224609375</v>
+        <v>286.900146484375</v>
       </c>
       <c r="I2">
-        <v>65.569580078125</v>
+        <v>79.559814453125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>249.999755859375</v>
+        <v>335.669677734375</v>
       </c>
       <c r="H3">
-        <v>218.44970703125</v>
+        <v>318.10986328125</v>
       </c>
       <c r="I3">
-        <v>31.550048828125</v>
+        <v>17.559814453125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>231.30029296875</v>
+        <v>295.120361328125</v>
       </c>
       <c r="H4">
-        <v>271.1298828125</v>
+        <v>347.85009765625</v>
       </c>
       <c r="I4">
-        <v>-39.82958984375</v>
+        <v>-52.729736328125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1362,10 +1362,10 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1374,13 +1374,13 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>211.35009765625</v>
+        <v>288.0703125</v>
       </c>
       <c r="H5">
-        <v>268.64013671875</v>
+        <v>332.460205078125</v>
       </c>
       <c r="I5">
-        <v>-57.2900390625</v>
+        <v>-44.389892578125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1439,10 +1439,10 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>256.47021484375</v>
+        <v>338.05029296875</v>
       </c>
       <c r="H2">
-        <v>212.05029296875</v>
+        <v>289.1103515625</v>
       </c>
       <c r="I2">
-        <v>44.419921875</v>
+        <v>48.93994140625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1471,10 +1471,10 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>231.2802734375</v>
+        <v>329.76025390625</v>
       </c>
       <c r="H3">
-        <v>216.489990234375</v>
+        <v>294.670166015625</v>
       </c>
       <c r="I3">
-        <v>14.790283203125</v>
+        <v>35.090087890625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1512,16 +1512,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>224.81005859375</v>
+        <v>302.990234375</v>
       </c>
       <c r="H4">
-        <v>246.66015625</v>
+        <v>345.14013671875</v>
       </c>
       <c r="I4">
-        <v>-21.85009765625</v>
+        <v>-42.14990234375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1544,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>179.510009765625</v>
+        <v>256.570068359375</v>
       </c>
       <c r="H5">
-        <v>216.8701171875</v>
+        <v>298.4501953125</v>
       </c>
       <c r="I5">
-        <v>-37.360107421875</v>
+        <v>-41.880126953125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1612,10 +1612,10 @@
         <v>41</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>257.0400390625</v>
+        <v>341.52001953125</v>
       </c>
       <c r="H2">
-        <v>200.6796875</v>
+        <v>275.24951171875</v>
       </c>
       <c r="I2">
-        <v>56.3603515625</v>
+        <v>66.2705078125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1653,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>236.9501953125</v>
+        <v>322.420166015625</v>
       </c>
       <c r="H3">
-        <v>222.33984375</v>
+        <v>300.749755859375</v>
       </c>
       <c r="I3">
-        <v>14.6103515625</v>
+        <v>21.67041015625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1676,10 +1676,10 @@
         <v>43</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>223.260009765625</v>
+        <v>311.52001953125</v>
       </c>
       <c r="H4">
-        <v>210.599853515625</v>
+        <v>306.81982421875</v>
       </c>
       <c r="I4">
-        <v>12.66015625</v>
+        <v>4.7001953125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>186.77978515625</v>
+        <v>276.9296875</v>
       </c>
       <c r="H5">
-        <v>270.41064453125</v>
+        <v>369.57080078125</v>
       </c>
       <c r="I5">
-        <v>-83.630859375</v>
+        <v>-92.64111328125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1794,16 +1794,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>255.68994140625</v>
+        <v>353.10986328125</v>
       </c>
       <c r="H2">
-        <v>224.68994140625</v>
+        <v>308.440185546875</v>
       </c>
       <c r="I2">
-        <v>31</v>
+        <v>44.669677734375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1829,13 +1829,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>273.52978515625</v>
+        <v>319.619873046875</v>
       </c>
       <c r="H3">
-        <v>244.51025390625</v>
+        <v>304.27001953125</v>
       </c>
       <c r="I3">
-        <v>29.01953125</v>
+        <v>15.349853515625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1849,10 +1849,10 @@
         <v>48</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>243.39013671875</v>
+        <v>362.5</v>
       </c>
       <c r="H4">
-        <v>253.1298828125</v>
+        <v>331.75</v>
       </c>
       <c r="I4">
-        <v>-9.73974609375</v>
+        <v>30.75</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1890,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>218.2099609375</v>
+        <v>296.830078125</v>
       </c>
       <c r="H5">
-        <v>268.48974609375</v>
+        <v>387.599609375</v>
       </c>
       <c r="I5">
-        <v>-50.27978515625</v>
+        <v>-90.76953125</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
@@ -92,25 +92,25 @@
     <t>Analove10 ITAQUI GRANDE!!</t>
   </si>
   <si>
+    <t>TEAM LOPES 99</t>
+  </si>
+  <si>
     <t>cartola scheuer</t>
   </si>
   <si>
-    <t>TEAM LOPES 99</t>
-  </si>
-  <si>
     <t>Grupo D</t>
   </si>
   <si>
+    <t>Tatols Beants F.C</t>
+  </si>
+  <si>
     <t>Texas Club 2025</t>
   </si>
   <si>
-    <t>Tatols Beants F.C</t>
+    <t>Super Vasco f.c</t>
   </si>
   <si>
     <t>Fedato Futebol Clube</t>
-  </si>
-  <si>
-    <t>Super Vasco f.c</t>
   </si>
   <si>
     <t>Grupo E</t>
@@ -574,10 +574,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>313.0595703125</v>
+        <v>389.4794921875</v>
       </c>
       <c r="H2">
-        <v>295.06005859375</v>
+        <v>362.68017578125</v>
       </c>
       <c r="I2">
-        <v>17.99951171875</v>
+        <v>26.79931640625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -606,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>338.75</v>
+        <v>442.31982421875</v>
       </c>
       <c r="H3">
-        <v>308.550048828125</v>
+        <v>390.270263671875</v>
       </c>
       <c r="I3">
-        <v>30.199951171875</v>
+        <v>52.049560546875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>298.56005859375</v>
+        <v>366.18017578125</v>
       </c>
       <c r="H4">
-        <v>340.02001953125</v>
+        <v>416.43994140625</v>
       </c>
       <c r="I4">
-        <v>-41.4599609375</v>
+        <v>-50.259765625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>297.710205078125</v>
+        <v>379.430419921875</v>
       </c>
       <c r="H5">
-        <v>304.44970703125</v>
+        <v>408.01953125</v>
       </c>
       <c r="I5">
-        <v>-6.739501953125</v>
+        <v>-28.589111328125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -747,10 +747,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -759,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>324.95068359375</v>
+        <v>415.970703125</v>
       </c>
       <c r="H2">
-        <v>288.02001953125</v>
+        <v>371.5</v>
       </c>
       <c r="I2">
-        <v>36.9306640625</v>
+        <v>44.470703125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -779,10 +779,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>338.77001953125</v>
+        <v>404.990234375</v>
       </c>
       <c r="H3">
-        <v>328.09033203125</v>
+        <v>381.6103515625</v>
       </c>
       <c r="I3">
-        <v>10.6796875</v>
+        <v>23.3798828125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>332.55029296875</v>
+        <v>416.0302734375</v>
       </c>
       <c r="H4">
-        <v>339.12060546875</v>
+        <v>430.140625</v>
       </c>
       <c r="I4">
-        <v>-6.5703125</v>
+        <v>-14.1103515625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>288.47021484375</v>
+        <v>341.990234375</v>
       </c>
       <c r="H5">
-        <v>329.51025390625</v>
+        <v>395.73046875</v>
       </c>
       <c r="I5">
-        <v>-41.0400390625</v>
+        <v>-53.740234375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>365.619873046875</v>
+        <v>429.019775390625</v>
       </c>
       <c r="H2">
-        <v>305.23974609375</v>
+        <v>391.85986328125</v>
       </c>
       <c r="I2">
-        <v>60.380126953125</v>
+        <v>37.159912109375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -952,10 +952,10 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>335.48974609375</v>
+        <v>422.10986328125</v>
       </c>
       <c r="H3">
-        <v>337.759765625</v>
+        <v>401.15966796875</v>
       </c>
       <c r="I3">
-        <v>-2.27001953125</v>
+        <v>20.9501953125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -993,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>311.93994140625</v>
+        <v>412.02978515625</v>
       </c>
       <c r="H4">
-        <v>362.65966796875</v>
+        <v>413.070068359375</v>
       </c>
       <c r="I4">
-        <v>-50.7197265625</v>
+        <v>-1.040283203125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1016,10 +1016,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>324.759765625</v>
+        <v>392.85986328125</v>
       </c>
       <c r="H5">
-        <v>332.150146484375</v>
+        <v>449.9296875</v>
       </c>
       <c r="I5">
-        <v>-7.390380859375</v>
+        <v>-57.06982421875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>310.4599609375</v>
+        <v>417.36962890625</v>
       </c>
       <c r="H2">
-        <v>305.650390625</v>
+        <v>411.75</v>
       </c>
       <c r="I2">
-        <v>4.8095703125</v>
+        <v>5.61962890625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1137,13 +1137,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>334.33984375</v>
+        <v>381.77978515625</v>
       </c>
       <c r="H3">
-        <v>330.72998046875</v>
+        <v>390.97021484375</v>
       </c>
       <c r="I3">
-        <v>3.60986328125</v>
+        <v>-9.1904296875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1166,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>320.650390625</v>
+        <v>404.889892578125</v>
       </c>
       <c r="H4">
-        <v>325.949951171875</v>
+        <v>394.009765625</v>
       </c>
       <c r="I4">
-        <v>-5.299560546875</v>
+        <v>10.880126953125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1189,10 +1189,10 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1201,13 +1201,13 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>319.570068359375</v>
+        <v>401.67041015625</v>
       </c>
       <c r="H5">
-        <v>322.68994140625</v>
+        <v>408.979736328125</v>
       </c>
       <c r="I5">
-        <v>-3.119873046875</v>
+        <v>-7.309326171875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1266,10 +1266,10 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>366.4599609375</v>
+        <v>448.8798828125</v>
       </c>
       <c r="H2">
-        <v>286.900146484375</v>
+        <v>341.420166015625</v>
       </c>
       <c r="I2">
-        <v>79.559814453125</v>
+        <v>107.459716796875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1298,10 +1298,10 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>335.669677734375</v>
+        <v>421.699462890625</v>
       </c>
       <c r="H3">
-        <v>318.10986328125</v>
+        <v>398.48974609375</v>
       </c>
       <c r="I3">
-        <v>17.559814453125</v>
+        <v>23.209716796875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>295.120361328125</v>
+        <v>375.500244140625</v>
       </c>
       <c r="H4">
-        <v>347.85009765625</v>
+        <v>433.8798828125</v>
       </c>
       <c r="I4">
-        <v>-52.729736328125</v>
+        <v>-58.379638671875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>288.0703125</v>
+        <v>342.59033203125</v>
       </c>
       <c r="H5">
-        <v>332.460205078125</v>
+        <v>414.880126953125</v>
       </c>
       <c r="I5">
-        <v>-44.389892578125</v>
+        <v>-72.289794921875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1448,16 +1448,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>338.05029296875</v>
+        <v>424.8203125</v>
       </c>
       <c r="H2">
-        <v>289.1103515625</v>
+        <v>376.34033203125</v>
       </c>
       <c r="I2">
-        <v>48.93994140625</v>
+        <v>48.47998046875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1471,10 +1471,10 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>329.76025390625</v>
+        <v>415.98046875</v>
       </c>
       <c r="H3">
-        <v>294.670166015625</v>
+        <v>364.590087890625</v>
       </c>
       <c r="I3">
-        <v>35.090087890625</v>
+        <v>51.390380859375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1503,10 +1503,10 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1515,13 +1515,13 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>302.990234375</v>
+        <v>390.22021484375</v>
       </c>
       <c r="H4">
-        <v>345.14013671875</v>
+        <v>431.91015625</v>
       </c>
       <c r="I4">
-        <v>-42.14990234375</v>
+        <v>-41.68994140625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1544,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>256.570068359375</v>
+        <v>326.489990234375</v>
       </c>
       <c r="H5">
-        <v>298.4501953125</v>
+        <v>384.67041015625</v>
       </c>
       <c r="I5">
-        <v>-41.880126953125</v>
+        <v>-58.180419921875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1612,10 +1612,10 @@
         <v>41</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>341.52001953125</v>
+        <v>414.1298828125</v>
       </c>
       <c r="H2">
-        <v>275.24951171875</v>
+        <v>333.679443359375</v>
       </c>
       <c r="I2">
-        <v>66.2705078125</v>
+        <v>80.450439453125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1644,10 +1644,10 @@
         <v>42</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>322.420166015625</v>
+        <v>391.570068359375</v>
       </c>
       <c r="H3">
-        <v>300.749755859375</v>
+        <v>367.979736328125</v>
       </c>
       <c r="I3">
-        <v>21.67041015625</v>
+        <v>23.59033203125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1685,16 +1685,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>311.52001953125</v>
+        <v>378.75</v>
       </c>
       <c r="H4">
-        <v>306.81982421875</v>
+        <v>375.9697265625</v>
       </c>
       <c r="I4">
-        <v>4.7001953125</v>
+        <v>2.7802734375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>276.9296875</v>
+        <v>335.359619140625</v>
       </c>
       <c r="H5">
-        <v>369.57080078125</v>
+        <v>442.1806640625</v>
       </c>
       <c r="I5">
-        <v>-92.64111328125</v>
+        <v>-106.821044921875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1785,10 +1785,10 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>353.10986328125</v>
+        <v>426.11962890625</v>
       </c>
       <c r="H2">
-        <v>308.440185546875</v>
+        <v>377.820068359375</v>
       </c>
       <c r="I2">
-        <v>44.669677734375</v>
+        <v>48.299560546875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1829,13 +1829,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>319.619873046875</v>
+        <v>394.139892578125</v>
       </c>
       <c r="H3">
-        <v>304.27001953125</v>
+        <v>374.2001953125</v>
       </c>
       <c r="I3">
-        <v>15.349853515625</v>
+        <v>19.939697265625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>362.5</v>
+        <v>432.43017578125</v>
       </c>
       <c r="H4">
-        <v>331.75</v>
+        <v>406.27001953125</v>
       </c>
       <c r="I4">
-        <v>30.75</v>
+        <v>26.16015625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1890,16 +1890,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>296.830078125</v>
+        <v>366.2099609375</v>
       </c>
       <c r="H5">
-        <v>387.599609375</v>
+        <v>460.609375</v>
       </c>
       <c r="I5">
-        <v>-90.76953125</v>
+        <v>-94.3994140625</v>
       </c>
       <c r="J5">
         <v>4</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_1.xlsx
@@ -56,12 +56,12 @@
     <t>Grupo A</t>
   </si>
   <si>
+    <t>Dom Camillo68</t>
+  </si>
+  <si>
     <t>pura bucha /botafogo</t>
   </si>
   <si>
-    <t>Dom Camillo68</t>
-  </si>
-  <si>
     <t>BORGES ITAQUI F.C.</t>
   </si>
   <si>
@@ -86,30 +86,30 @@
     <t>Grupo C</t>
   </si>
   <si>
+    <t>Analove10 ITAQUI GRANDE!!</t>
+  </si>
+  <si>
+    <t>TEAM LOPES 99</t>
+  </si>
+  <si>
     <t>Grêmio imortal 37</t>
   </si>
   <si>
-    <t>Analove10 ITAQUI GRANDE!!</t>
-  </si>
-  <si>
-    <t>TEAM LOPES 99</t>
-  </si>
-  <si>
     <t>cartola scheuer</t>
   </si>
   <si>
     <t>Grupo D</t>
   </si>
   <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
+    <t>Super Vasco f.c</t>
+  </si>
+  <si>
     <t>Tatols Beants F.C</t>
   </si>
   <si>
-    <t>Texas Club 2025</t>
-  </si>
-  <si>
-    <t>Super Vasco f.c</t>
-  </si>
-  <si>
     <t>Fedato Futebol Clube</t>
   </si>
   <si>
@@ -131,10 +131,10 @@
     <t>Grupo F</t>
   </si>
   <si>
+    <t>TORRESMO COM PINGA</t>
+  </si>
+  <si>
     <t>Lá do Itaqui</t>
-  </si>
-  <si>
-    <t>TORRESMO COM PINGA</t>
   </si>
   <si>
     <t>FC Los Castilho</t>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>389.4794921875</v>
+        <v>520.8798828125</v>
       </c>
       <c r="H2">
-        <v>362.68017578125</v>
+        <v>467.770263671875</v>
       </c>
       <c r="I2">
-        <v>26.79931640625</v>
+        <v>53.109619140625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -606,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>442.31982421875</v>
+        <v>466.9794921875</v>
       </c>
       <c r="H3">
-        <v>390.270263671875</v>
+        <v>441.240234375</v>
       </c>
       <c r="I3">
-        <v>52.049560546875</v>
+        <v>25.7392578125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -638,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -650,13 +650,13 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>366.18017578125</v>
+        <v>475.830078125</v>
       </c>
       <c r="H4">
-        <v>416.43994140625</v>
+        <v>509.7998046875</v>
       </c>
       <c r="I4">
-        <v>-50.259765625</v>
+        <v>-33.9697265625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>379.430419921875</v>
+        <v>472.790283203125</v>
       </c>
       <c r="H5">
-        <v>408.01953125</v>
+        <v>517.66943359375</v>
       </c>
       <c r="I5">
-        <v>-28.589111328125</v>
+        <v>-44.879150390625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -756,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>415.970703125</v>
+        <v>522.12060546875</v>
       </c>
       <c r="H2">
-        <v>371.5</v>
+        <v>480.06005859375</v>
       </c>
       <c r="I2">
-        <v>44.470703125</v>
+        <v>42.060546875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -779,10 +779,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>404.990234375</v>
+        <v>513.55029296875</v>
       </c>
       <c r="H3">
-        <v>381.6103515625</v>
+        <v>487.76025390625</v>
       </c>
       <c r="I3">
-        <v>23.3798828125</v>
+        <v>25.7900390625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -811,10 +811,10 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>416.0302734375</v>
+        <v>498.68017578125</v>
       </c>
       <c r="H4">
-        <v>430.140625</v>
+        <v>498.5908203125</v>
       </c>
       <c r="I4">
-        <v>-14.1103515625</v>
+        <v>0.08935546875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>341.990234375</v>
+        <v>410.4404296875</v>
       </c>
       <c r="H5">
-        <v>395.73046875</v>
+        <v>478.38037109375</v>
       </c>
       <c r="I5">
-        <v>-53.740234375</v>
+        <v>-67.93994140625</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -920,10 +920,10 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>429.019775390625</v>
+        <v>526.31005859375</v>
       </c>
       <c r="H2">
-        <v>391.85986328125</v>
+        <v>499.45947265625</v>
       </c>
       <c r="I2">
-        <v>37.159912109375</v>
+        <v>26.8505859375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>422.10986328125</v>
+        <v>518.08984375</v>
       </c>
       <c r="H3">
-        <v>401.15966796875</v>
+        <v>501.429931640625</v>
       </c>
       <c r="I3">
-        <v>20.9501953125</v>
+        <v>16.659912109375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -984,10 +984,10 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -996,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>412.02978515625</v>
+        <v>517.379638671875</v>
       </c>
       <c r="H4">
-        <v>413.070068359375</v>
+        <v>497.919921875</v>
       </c>
       <c r="I4">
-        <v>-1.040283203125</v>
+        <v>19.459716796875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>392.85986328125</v>
+        <v>491.15966796875</v>
       </c>
       <c r="H5">
-        <v>449.9296875</v>
+        <v>554.1298828125</v>
       </c>
       <c r="I5">
-        <v>-57.06982421875</v>
+        <v>-62.97021484375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1093,10 +1093,10 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>417.36962890625</v>
+        <v>501.6298828125</v>
       </c>
       <c r="H2">
-        <v>411.75</v>
+        <v>477.0302734375</v>
       </c>
       <c r="I2">
-        <v>5.61962890625</v>
+        <v>24.599609375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1134,16 +1134,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>381.77978515625</v>
+        <v>505.749755859375</v>
       </c>
       <c r="H3">
-        <v>390.97021484375</v>
+        <v>486.06982421875</v>
       </c>
       <c r="I3">
-        <v>-9.1904296875</v>
+        <v>19.679931640625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1157,10 +1157,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1169,13 +1169,13 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>404.889892578125</v>
+        <v>503.4296875</v>
       </c>
       <c r="H4">
-        <v>394.009765625</v>
+        <v>531.60009765625</v>
       </c>
       <c r="I4">
-        <v>10.880126953125</v>
+        <v>-28.17041015625</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1198,16 +1198,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>401.67041015625</v>
+        <v>493.73046875</v>
       </c>
       <c r="H5">
-        <v>408.979736328125</v>
+        <v>509.839599609375</v>
       </c>
       <c r="I5">
-        <v>-7.309326171875</v>
+        <v>-16.109130859375</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1275,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>448.8798828125</v>
+        <v>552.1396484375</v>
       </c>
       <c r="H2">
-        <v>341.420166015625</v>
+        <v>445.080322265625</v>
       </c>
       <c r="I2">
-        <v>107.459716796875</v>
+        <v>107.059326171875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1298,10 +1298,10 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>421.699462890625</v>
+        <v>500.619384765625</v>
       </c>
       <c r="H3">
-        <v>398.48974609375</v>
+        <v>454.81982421875</v>
       </c>
       <c r="I3">
-        <v>23.209716796875</v>
+        <v>45.799560546875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1330,10 +1330,10 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>375.500244140625</v>
+        <v>479.160400390625</v>
       </c>
       <c r="H4">
-        <v>433.8798828125</v>
+        <v>537.1396484375</v>
       </c>
       <c r="I4">
-        <v>-58.379638671875</v>
+        <v>-57.979248046875</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>342.59033203125</v>
+        <v>398.92041015625</v>
       </c>
       <c r="H5">
-        <v>414.880126953125</v>
+        <v>493.800048828125</v>
       </c>
       <c r="I5">
-        <v>-72.289794921875</v>
+        <v>-94.879638671875</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1448,16 +1448,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>424.8203125</v>
+        <v>514.140625</v>
       </c>
       <c r="H2">
-        <v>376.34033203125</v>
+        <v>447.199951171875</v>
       </c>
       <c r="I2">
-        <v>48.47998046875</v>
+        <v>66.940673828125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1471,10 +1471,10 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>415.98046875</v>
+        <v>507.43017578125</v>
       </c>
       <c r="H3">
-        <v>364.590087890625</v>
+        <v>474.50048828125</v>
       </c>
       <c r="I3">
-        <v>51.390380859375</v>
+        <v>32.9296875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1503,10 +1503,10 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1515,13 +1515,13 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>390.22021484375</v>
+        <v>476.580078125</v>
       </c>
       <c r="H4">
-        <v>431.91015625</v>
+        <v>498.669921875</v>
       </c>
       <c r="I4">
-        <v>-41.68994140625</v>
+        <v>-22.08984375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1544,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>326.489990234375</v>
+        <v>393.249755859375</v>
       </c>
       <c r="H5">
-        <v>384.67041015625</v>
+        <v>471.0302734375</v>
       </c>
       <c r="I5">
-        <v>-58.180419921875</v>
+        <v>-77.780517578125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1612,10 +1612,10 @@
         <v>41</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>414.1298828125</v>
+        <v>513.68994140625</v>
       </c>
       <c r="H2">
-        <v>333.679443359375</v>
+        <v>411.539306640625</v>
       </c>
       <c r="I2">
-        <v>80.450439453125</v>
+        <v>102.150634765625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1653,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>391.570068359375</v>
+        <v>469.429931640625</v>
       </c>
       <c r="H3">
-        <v>367.979736328125</v>
+        <v>467.539794921875</v>
       </c>
       <c r="I3">
-        <v>23.59033203125</v>
+        <v>1.89013671875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1685,16 +1685,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>378.75</v>
+        <v>449.68017578125</v>
       </c>
       <c r="H4">
-        <v>375.9697265625</v>
+        <v>449.2294921875</v>
       </c>
       <c r="I4">
-        <v>2.7802734375</v>
+        <v>0.45068359375</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1708,10 +1708,10 @@
         <v>44</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1720,13 +1720,13 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>335.359619140625</v>
+        <v>408.619384765625</v>
       </c>
       <c r="H5">
-        <v>442.1806640625</v>
+        <v>513.11083984375</v>
       </c>
       <c r="I5">
-        <v>-106.821044921875</v>
+        <v>-104.491455078125</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1794,16 +1794,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>426.11962890625</v>
+        <v>504.9794921875</v>
       </c>
       <c r="H2">
-        <v>377.820068359375</v>
+        <v>485.520263671875</v>
       </c>
       <c r="I2">
-        <v>48.299560546875</v>
+        <v>19.459228515625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1826,16 +1826,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>394.139892578125</v>
+        <v>443.39990234375</v>
       </c>
       <c r="H3">
-        <v>374.2001953125</v>
+        <v>466.25</v>
       </c>
       <c r="I3">
-        <v>19.939697265625</v>
+        <v>-22.85009765625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1849,10 +1849,10 @@
         <v>48</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>432.43017578125</v>
+        <v>540.13037109375</v>
       </c>
       <c r="H4">
-        <v>406.27001953125</v>
+        <v>485.1298828125</v>
       </c>
       <c r="I4">
-        <v>26.16015625</v>
+        <v>55.00048828125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1881,10 +1881,10 @@
         <v>49</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1893,13 +1893,13 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>366.2099609375</v>
+        <v>458.259765625</v>
       </c>
       <c r="H5">
-        <v>460.609375</v>
+        <v>509.869384765625</v>
       </c>
       <c r="I5">
-        <v>-94.3994140625</v>
+        <v>-51.609619140625</v>
       </c>
       <c r="J5">
         <v>4</v>
